--- a/med/leadership/files/leadership.xlsx
+++ b/med/leadership/files/leadership.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UVUStudentLoaner\Desktop\REPOs\personal\pbischoff3.github.io\Hours\leadership\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbisc\Desktop\REPOs\personal\pbischoff3.github.io\med\leadership\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9EBEAD-C894-4AE4-B37F-262FF6BF42CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C85E1F-AFD0-4218-8733-DF3674C6CB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -388,7 +388,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -443,27 +445,21 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="C4">
         <f>B4*4</f>
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D4">
         <f>C4*12</f>
-        <v>408</v>
+        <v>504</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
       <c r="D5">
         <v>1345</v>
       </c>
@@ -472,15 +468,8 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
       <c r="D6">
-        <f>B6*6</f>
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">

--- a/med/leadership/files/leadership.xlsx
+++ b/med/leadership/files/leadership.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbisc\Desktop\REPOs\personal\pbischoff3.github.io\med\leadership\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C85E1F-AFD0-4218-8733-DF3674C6CB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDC71D5-1074-48A9-B501-5AC18AA51B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -389,7 +389,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D2" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,15 +445,15 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="C4">
         <f>B4*4</f>
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D4">
         <f>C4*12</f>
-        <v>504</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -469,7 +469,7 @@
         <v>7</v>
       </c>
       <c r="D6">
-        <v>61</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
